--- a/biology/Botanique/Ecdeiocoleaceae/Ecdeiocoleaceae.xlsx
+++ b/biology/Botanique/Ecdeiocoleaceae/Ecdeiocoleaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Ecdeiocoleaceae est une famille de plantes monocotylédones qui ne comprend qu'une ou deux espèces dans 1 ou 2 genres.
 Ce sont des plantes herbacées xérophytes de l'ouest de l'Australie.
-En classification classique de Cronquist (1981)[1] cette famille n'existe pas.
+En classification classique de Cronquist (1981) cette famille n'existe pas.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Ecdeiocolea est formé du grec ἔκδεια / ekdeia (insuffisance, déficit) et κολεός / koleos (fourreau, étui, gaine). Les tiges ont très peu de gaines foliaires.
 </t>
@@ -544,14 +558,16 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010)[2] et NCBI  (20 avr. 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010) et NCBI  (20 avr. 2010) :
 genre Ecdeiocolea (en)  F.Muell. (1874)
 Ecdeiocolea monostachya  F.Muell. (1874)
 genre Georgeantha (en)  B.G.Briggs &amp; L.A.S.Johnson (1998)
 Georgeantha hexandra  B.G.Briggs &amp; L.A.S.Johnson (1998)
-Selon Angiosperm Phylogeny Website                        (18 mai 2010)[4] et DELTA Angio           (20 avr. 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (18 mai 2010) et DELTA Angio           (20 avr. 2010) :
 genre Ecdeiocolea F.Muell.</t>
         </is>
       </c>
